--- a/orders/260120-McMaster.xlsx
+++ b/orders/260120-McMaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/jheath_stanford_edu/Documents/nonsense/sewing/singer4452-speed-controller/orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF39E911-FDA4-41C0-977E-7A2331CBCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{DF39E911-FDA4-41C0-977E-7A2331CBCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{746DA037-D413-8D48-9658-89A8A385224B}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="1485" windowWidth="29760" windowHeight="19035" xr2:uid="{3CF2C819-79CE-49D5-A3C4-4FFF5836FF33}"/>
+    <workbookView xWindow="4800" yWindow="1480" windowWidth="29760" windowHeight="19040" xr2:uid="{3CF2C819-79CE-49D5-A3C4-4FFF5836FF33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>MFG #</t>
   </si>
@@ -59,54 +59,9 @@
     <t>Link</t>
   </si>
   <si>
-    <t>91292A135</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Socket Head Screw, M6, 16mm long, pack of 50</t>
-  </si>
-  <si>
     <t>Mcmaster Carr</t>
   </si>
   <si>
-    <t>18-8 Stainless Steel Socket Head Screw, M6 x 1 mm Thread, 16 mm Long | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>9657K547</t>
-  </si>
-  <si>
-    <t>Compression Spring, 3" Long, 1.225" OD, 1.055" ID, Spring Steel, pack of 6</t>
-  </si>
-  <si>
-    <t>Compression Spring, 3" Long, 1.225" OD, 1.055" ID | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>91287A264</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Hex Head Screw, M6 x 1mm Part Thread, 130mm Long, pack of 5</t>
-  </si>
-  <si>
-    <t>18-8 Stainless Steel Hex Head Screw, Made in The U.S., M6 x 1mm Part Thread, 130mm Long | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>91828A251</t>
-  </si>
-  <si>
-    <t>Corrosion-Resistant 18-8 Stainless Steel Hex Nut, M6 x 1 mm Thread Size, pack of 100</t>
-  </si>
-  <si>
-    <t>Corrosion-Resistant 18-8 Stainless Steel Hex Nut, M6 x 1 mm Thread Size | McMaster-Carr</t>
-  </si>
-  <si>
-    <t>95211A160</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 316 Stainless Steel Oversized Washer for M6 Screw Size, 6.4 mm ID, 18.0 mm OD, Pack of 25</t>
-  </si>
-  <si>
-    <t>Super-Corrosion-Resistant 316 Stainless Steel Oversized Washer, for M6 Screw Size, 6.4 mm ID, 18.0 mm OD | McMaster-Carr</t>
-  </si>
-  <si>
     <t>5652N161</t>
   </si>
   <si>
@@ -114,12 +69,6 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/5652N161/</t>
-  </si>
-  <si>
-    <t>I own</t>
-  </si>
-  <si>
-    <t>Expense</t>
   </si>
 </sst>
 </file>
@@ -509,25 +458,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7AF3A7-1017-4DCF-B993-87408B3AA1F2}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="9" max="12" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="9" max="12" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,152 +499,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>11.46</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>8.65</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>6.67</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <f>SUM(C2:C7)</f>
-        <v>26.78</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.mcmaster.com/91292A135/" xr:uid="{A17C0F00-A320-4D92-A239-027FD2C263CD}"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.mcmaster.com/9657K547/" xr:uid="{A1CFFAFC-F086-4CE4-AD1F-7CEECC4FB377}"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.mcmaster.com/91287A264/" xr:uid="{900511D4-2E74-4C8E-B8E6-3107C9EF6193}"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.mcmaster.com/91828A251/" xr:uid="{EB0B43B4-8BF9-4D83-A1E4-CFD6AB2AEEF5}"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://www.mcmaster.com/95211A160/" xr:uid="{97FE24CA-EC44-42BA-B687-10B7AFC800B3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>